--- a/data/am_tram13_name.xlsx
+++ b/data/am_tram13_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806E20F-5D76-416A-AD83-6F1F01E1B36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED7FDD6-DA89-4524-93AA-5A2DAF90AA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41625" yWindow="1710" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Nieuwezijds Kolk</t>
   </si>
   <si>
-    <t>Centraal Station</t>
-  </si>
-  <si>
     <t>Burgemeester Van Leeuwenlaan</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Admiraal De Ruijterweg</t>
+  </si>
+  <si>
+    <t>Centraal Station_B</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -429,7 +429,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
